--- a/src/app/Cosin.xlsx
+++ b/src/app/Cosin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>['semantic_splitter_spacy mistralai/mixtral-8x7b-instruct-v0.1 Als']</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[0.89175516]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/app/Cosin.xlsx
+++ b/src/app/Cosin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,282 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>['semantic_splitter_spacy mistralai/mixtral-8x7b-instruct-v0.1 Beantworte']</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[0.89509326]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>['semantic_splitter_spacy meta/meta-llama-3-70b-instruct Als']</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[0.9362696]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>['semantic_splitter_spacy meta/meta-llama-3-70b-instruct Beantworte']</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[0.94040877]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>['semantic_splitter_replicate mistralai/mixtral-8x7b-instruct-v0.1 Als']</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[0.891711]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>['semantic_splitter_replicate mistralai/mixtral-8x7b-instruct-v0.1 Beantworte']</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[0.8986304]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>['semantic_splitter_replicate meta/meta-llama-3-70b-instruct Als']</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[0.9372982]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>['semantic_splitter_replicate meta/meta-llama-3-70b-instruct Beantworte']</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[0.9422775]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>['char_splitter_1024_o128_spacy mistralai/mixtral-8x7b-instruct-v0.1 Als']</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[0.8978463]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>['char_splitter_1024_o128_spacy mistralai/mixtral-8x7b-instruct-v0.1 Beantworte']</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[0.90356374]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>['char_splitter_1024_o128_spacy meta/meta-llama-3-70b-instruct Als']</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[0.93593365]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>['char_splitter_1024_o128_spacy meta/meta-llama-3-70b-instruct Beantworte']</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[0.9427309]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>['char_splitter_1024_o128_replicate mistralai/mixtral-8x7b-instruct-v0.1 Als']</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[0.8970864]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>['char_splitter_1024_o128_replicate mistralai/mixtral-8x7b-instruct-v0.1 Beantworte']</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[0.9074232]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>['char_splitter_1024_o128_replicate meta/meta-llama-3-70b-instruct Als']</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[0.9439096]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>['char_splitter_1024_o128_replicate meta/meta-llama-3-70b-instruct Beantworte']</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[0.94990003]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>['article_regex_splitter_spacy mistralai/mixtral-8x7b-instruct-v0.1 Als']</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[0.89194274]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>['article_regex_splitter_spacy mistralai/mixtral-8x7b-instruct-v0.1 Beantworte']</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[0.8996756]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>['article_regex_splitter_spacy meta/meta-llama-3-70b-instruct Als']</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[0.93495566]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>['article_regex_splitter_spacy meta/meta-llama-3-70b-instruct Beantworte']</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[0.941865]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>['article_regex_splitter_replicate mistralai/mixtral-8x7b-instruct-v0.1 Als']</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[0.8961337]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>['article_regex_splitter_replicate mistralai/mixtral-8x7b-instruct-v0.1 Beantworte']</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[0.9010663]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>['article_regex_splitter_replicate meta/meta-llama-3-70b-instruct Als']</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[0.9421219]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>['article_regex_splitter_replicate meta/meta-llama-3-70b-instruct Beantworte']</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[0.9454018]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
